--- a/online_proc/Data/NormoOuvintes/data.xlsx
+++ b/online_proc/Data/NormoOuvintes/data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19095" windowHeight="6150"/>
+    <workbookView xWindow="495" yWindow="-90" windowWidth="14295" windowHeight="4110" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Jef" sheetId="1" r:id="rId1"/>
-    <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
+    <sheet name="Die" sheetId="1" r:id="rId1"/>
+    <sheet name="Fil" sheetId="2" r:id="rId2"/>
+    <sheet name="Jef" sheetId="3" r:id="rId3"/>
+    <sheet name="Rog" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>Wiener</t>
   </si>
@@ -34,16 +35,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -166,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -174,14 +167,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,76 +468,766 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
         <v>-5</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
         <v>-5</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>5</v>
       </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
         <v>-5</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>5</v>
       </c>
-      <c r="K2" s="8">
-        <v>0</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
         <v>-5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>-5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <f>7/7</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E3" s="9">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="9">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="2">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F4" s="3">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K5" s="2">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="E6" s="2">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <f>7/7</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
+        <f>3/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B8" s="5">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E8" s="5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F8" s="6">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>-5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
         <f>0/5</f>
         <v>0</v>
       </c>
@@ -557,39 +1239,39 @@
         <f>0/8</f>
         <v>0</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="9">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="F3" s="11">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="11">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="9">
+      <c r="F3" s="10">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
         <f>4/5</f>
         <v>0.8</v>
       </c>
-      <c r="K3" s="10">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
+      <c r="K3" s="9">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
         <f>0/5</f>
         <v>0</v>
       </c>
@@ -843,9 +1525,6 @@
         <f>0/7</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="F10" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -859,26 +1538,367 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="7">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>-5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>-5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>-5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>5</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="2">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="9">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="9">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="8">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="K3" s="9">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="B4" s="2">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="B5" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="E5" s="2">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="E6" s="2">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="2">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <f>7/8</f>
+        <v>0.875</v>
+      </c>
+      <c r="E7" s="2">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="5">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/online_proc/Data/NormoOuvintes/data.xlsx
+++ b/online_proc/Data/NormoOuvintes/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="-90" windowWidth="14295" windowHeight="4110" activeTab="3"/>
+    <workbookView xWindow="495" yWindow="-90" windowWidth="14295" windowHeight="4110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Die" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="6">
   <si>
     <t>Wiener</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>Unproces.</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -52,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -155,11 +161,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -172,6 +228,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -477,26 +599,26 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7">
@@ -777,380 +899,604 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="32"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
         <v>-5</v>
       </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="F2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
         <v>-5</v>
       </c>
-      <c r="G2" s="7">
-        <v>5</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="K2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="11">
+        <v>5</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
         <v>-5</v>
       </c>
-      <c r="J2" s="7">
-        <v>5</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="P2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>5</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
+    <row r="3" spans="1:20">
+      <c r="A3" s="25">
         <f>7/7</f>
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="26">
+        <f>7/7</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D3" s="26">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <f>7/7</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="26">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E3" s="9">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="10">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="H3" s="26">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I3" s="26">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L3" s="21">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="H3" s="9">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="M3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="28">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="26">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="R3" s="26">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="26">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="27">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="20">
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E4" s="2">
+      <c r="B4" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="21">
+        <f>0/10</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="F4" s="3">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="J4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L4" s="21">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="M4" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="28">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="28">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="20">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D5" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I5" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L5" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="1">
+      <c r="N5" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="28">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="K5" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="R5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="28">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="20">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="21">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G6" s="21">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="E6" s="2">
+      <c r="H6" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="J6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <f>6/6</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="I6" s="3">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="O6" s="28">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="28">
         <f>0/3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
+    <row r="7" spans="1:20">
+      <c r="A7" s="20">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
         <f>7/7</f>
         <v>1</v>
       </c>
-      <c r="F7" s="3">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
+      <c r="J7" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="21">
+        <f>6/6</f>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="22">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B8" s="23">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="B8" s="5">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="23">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D8" s="23">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <f>7/7</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
         <f>5/7</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="E8" s="5">
+      <c r="H8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="23">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F8" s="6">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="J8" s="23">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="23">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="N8" s="23">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="29">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="29">
         <f>0/7</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1158,380 +1504,601 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L8"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
         <v>-5</v>
       </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="F2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="11">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
         <v>-5</v>
       </c>
-      <c r="G2" s="7">
-        <v>5</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="K2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="11">
+        <v>5</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
         <v>-5</v>
       </c>
-      <c r="J2" s="7">
-        <v>5</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="P2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>5</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:20">
+      <c r="A3" s="25">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="B3" s="26">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="26">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="E3" s="27">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="E3" s="9">
+      <c r="H3" s="26">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="F3" s="10">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="J3" s="26">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="L3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="28">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26">
         <f>4/5</f>
         <v>0.8</v>
       </c>
-      <c r="K3" s="9">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="R3" s="26">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="26">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="27">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="20">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G4" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="I4" s="21">
         <f>5/7</f>
         <v>0.7142857142857143</v>
       </c>
-      <c r="F4" s="3">
+      <c r="J4" s="21">
         <f>2/6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G4" s="1">
+      <c r="K4" s="21">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
         <f>2/4</f>
         <v>0.5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="M4" s="21">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
-        <f>0/3</f>
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="N4" s="21">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="28">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="28">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="20">
         <f>4/7</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="E5" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="B5" s="21">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G5" s="21">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H5" s="21">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G5" s="1">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="K5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="28">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="P5" s="21">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="Q5" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="28">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="20">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="B6" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="D6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
         <f>0/3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
         <f>7/7</f>
         <v>1</v>
       </c>
-      <c r="E6" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="H6" s="21">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
         <f>0/3</f>
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="K6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="28">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="S6" s="21">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="28">
         <f>0/3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
+    <row r="7" spans="1:20">
+      <c r="A7" s="20">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="21">
         <f>2/5</f>
         <v>0.4</v>
       </c>
-      <c r="B7" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C7" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="21">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="21">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I7" s="21">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F7" s="3">
+      <c r="J7" s="21">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="G7" s="1">
+      <c r="K7" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="H7" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="M7" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="21">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="K7" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="B8" s="5">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="R7" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="22">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="23">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D8" s="23">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
         <f>3/8</f>
         <v>0.375</v>
       </c>
-      <c r="E8" s="5">
+      <c r="H8" s="23">
+        <f>5/7</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="I8" s="23">
         <f>3/4</f>
         <v>0.75</v>
       </c>
-      <c r="F8" s="6">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
+      <c r="J8" s="23">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="23">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="23">
         <f>1/8</f>
         <v>0.125</v>
       </c>
-      <c r="H8" s="5">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="M8" s="23">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="23">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="29">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="K8" s="5">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="Q8" s="23">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="R8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="29">
         <f>0/7</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1540,364 +2107,583 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24">
+        <v>5</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="24">
+        <v>0</v>
+      </c>
+      <c r="E2" s="24">
         <v>-5</v>
       </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="F2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="17">
+        <v>5</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="16">
         <v>-5</v>
       </c>
-      <c r="G2" s="7">
-        <v>5</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="K2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="11">
+        <v>5</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="11">
         <v>-5</v>
       </c>
-      <c r="J2" s="7">
-        <v>5</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="P2" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>5</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="11">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
         <v>-5</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
+    <row r="3" spans="1:20">
+      <c r="A3" s="25">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="26">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="26">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="E3" s="9">
+      <c r="H3" s="26">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="I3" s="26">
         <f>2/7</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="9">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="26">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="26">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="26">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="27">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="26">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26">
         <f>4/5</f>
         <v>0.8</v>
       </c>
-      <c r="K3" s="9">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1">
+      <c r="R3" s="26">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="26">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="27">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="20">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="21">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="B4" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="28">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="G4" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <f>7/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I4" s="21">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="J4" s="21">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1">
+      <c r="N4" s="21">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="28">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0</v>
+      </c>
+      <c r="R4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="21">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="28">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="20">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="B5" s="21">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="B5" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="28">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G5" s="21">
         <f>3/5</f>
         <v>0.6</v>
       </c>
-      <c r="E5" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="21">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I5" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="28">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="B6" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="P5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="28">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="20">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="28">
         <f>0/3</f>
         <v>0</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F6" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
         <f>3/7</f>
         <v>0.42857142857142855</v>
       </c>
-      <c r="E6" s="2">
+      <c r="H6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
         <f>2/8</f>
         <v>0.25</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="28">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="21">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="28">
         <f>0/3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1">
+    <row r="7" spans="1:20">
+      <c r="A7" s="20">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="21">
         <f>0/3</f>
         <v>0</v>
       </c>
-      <c r="B7" s="2">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C7" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="28">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="D7" s="1">
+      <c r="F7" s="21">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G7" s="21">
         <f>7/8</f>
         <v>0.875</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="21">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I7" s="21">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4">
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="28">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="28">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="22">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="23">
         <f>0/4</f>
         <v>0</v>
       </c>
-      <c r="B8" s="5">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <f>0/8</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="C8" s="23">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="23">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="29">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="23">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="23">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="23">
         <f>1/6</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <f>0/6</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <f>0/7</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <f>0/5</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="J8" s="23">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="23">
+        <v>0</v>
+      </c>
+      <c r="M8" s="23">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="23">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="29">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="29">
         <f>0/7</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/online_proc/Data/NormoOuvintes/data.xlsx
+++ b/online_proc/Data/NormoOuvintes/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="-90" windowWidth="14295" windowHeight="4110" activeTab="4"/>
+    <workbookView xWindow="495" yWindow="-90" windowWidth="14295" windowHeight="4110" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Die" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="Jef" sheetId="3" r:id="rId3"/>
     <sheet name="Rog" sheetId="4" r:id="rId4"/>
     <sheet name="Ric" sheetId="5" r:id="rId5"/>
+    <sheet name="Fil2" sheetId="6" r:id="rId6"/>
+    <sheet name="Rog2" sheetId="7" r:id="rId7"/>
+    <sheet name="Die2" sheetId="8" r:id="rId8"/>
+    <sheet name="Mar" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="6">
   <si>
     <t>Wiener</t>
   </si>
@@ -216,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -280,6 +284,114 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -642,26 +754,26 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38" t="s">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38" t="s">
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7">
@@ -945,40 +1057,40 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection sqref="A1:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="41" t="s">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44" t="s">
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41" t="s">
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="79"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="19" t="s">
@@ -1556,34 +1668,34 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="45" t="s">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="45" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="47"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="19" t="s">
@@ -2153,40 +2265,40 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="45" t="s">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="45" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="47"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="19" t="s">
@@ -2736,41 +2848,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="45" t="s">
+      <c r="A1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="45" t="s">
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="45" t="s">
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="46"/>
-      <c r="T1" s="47"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="83"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="29" t="s">
@@ -3125,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="30">
-        <f t="shared" ref="M6:N8" si="0">0/6</f>
+        <f t="shared" ref="N6:N8" si="0">0/6</f>
         <v>0</v>
       </c>
       <c r="O6" s="31">
@@ -3311,6 +3423,2022 @@
         <f>0/7</f>
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="79"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-5</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="38">
+        <v>5</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="38">
+        <v>0</v>
+      </c>
+      <c r="J2" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="38">
+        <v>5</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="38">
+        <v>0</v>
+      </c>
+      <c r="O2" s="38">
+        <v>-5</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>5</v>
+      </c>
+      <c r="R2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="38">
+        <v>0</v>
+      </c>
+      <c r="T2" s="38">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="20">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="21">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="21">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E3" s="22">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="G3" s="21">
+        <v>0</v>
+      </c>
+      <c r="H3" s="21">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I3" s="21">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="L3" s="21">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="44">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="B4" s="39">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="D4" s="39">
+        <f>4/8</f>
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="40">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G4" s="39">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H4" s="39">
+        <f>0/10</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="39">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="J4" s="39">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="44">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L4" s="39">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="39">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="39">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="40">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="39">
+        <f>3/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q4" s="39">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="39">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="39">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="40">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="44">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="B5" s="39">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0</v>
+      </c>
+      <c r="D5" s="39">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="40">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G5" s="39">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="39">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39">
+        <f>3/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="39">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="44">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="L5" s="39">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="39">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="39">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="40">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="39">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="39">
+        <v>0</v>
+      </c>
+      <c r="R5" s="39">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="39">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="40">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="44">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="B6" s="39">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C6" s="39">
+        <v>0</v>
+      </c>
+      <c r="D6" s="39">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <v>0</v>
+      </c>
+      <c r="G6" s="39">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H6" s="39">
+        <v>0</v>
+      </c>
+      <c r="I6" s="39">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="39">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="44">
+        <v>0</v>
+      </c>
+      <c r="L6" s="39">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="39">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="39">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="40">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="39">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="39">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="39">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="39">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="40">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="41">
+        <v>0</v>
+      </c>
+      <c r="B7" s="42">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="42">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D7" s="42">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="43">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="42">
+        <f>5/8</f>
+        <v>0.625</v>
+      </c>
+      <c r="G7" s="42">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="42">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J7" s="42">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="41">
+        <v>0</v>
+      </c>
+      <c r="L7" s="42">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="42">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="42">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="43">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="42">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="42">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="42">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="43">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="79"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-5</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="47">
+        <v>5</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="47">
+        <v>0</v>
+      </c>
+      <c r="J2" s="54">
+        <v>-5</v>
+      </c>
+      <c r="K2" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="47">
+        <v>5</v>
+      </c>
+      <c r="M2" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="47">
+        <v>0</v>
+      </c>
+      <c r="O2" s="47">
+        <v>-5</v>
+      </c>
+      <c r="P2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="55">
+        <v>5</v>
+      </c>
+      <c r="R2" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="47">
+        <v>0</v>
+      </c>
+      <c r="T2" s="47">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="20">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="21">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="C3" s="21">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="G3" s="21">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <v>0</v>
+      </c>
+      <c r="J3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="53">
+        <f>6/6</f>
+        <v>1</v>
+      </c>
+      <c r="B4" s="48">
+        <v>0</v>
+      </c>
+      <c r="C4" s="48">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="48">
+        <v>0</v>
+      </c>
+      <c r="E4" s="49">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="48">
+        <f>3/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="G4" s="48">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="H4" s="48">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="48">
+        <v>0</v>
+      </c>
+      <c r="J4" s="48">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="53">
+        <v>0</v>
+      </c>
+      <c r="L4" s="48">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="48">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="48">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="49">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="48">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="48">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="48">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="49">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="53">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="B5" s="48">
+        <v>0</v>
+      </c>
+      <c r="C5" s="48">
+        <v>0</v>
+      </c>
+      <c r="D5" s="48">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="49">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="48">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G5" s="48">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H5" s="48">
+        <v>0</v>
+      </c>
+      <c r="I5" s="48">
+        <v>0</v>
+      </c>
+      <c r="J5" s="48">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="53">
+        <v>0</v>
+      </c>
+      <c r="L5" s="48">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="48">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="48">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="49">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="48">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>0</v>
+      </c>
+      <c r="R5" s="48">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="48">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="49">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="53">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="48">
+        <v>0</v>
+      </c>
+      <c r="C6" s="48">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="48">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="49">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="48">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G6" s="48">
+        <v>0</v>
+      </c>
+      <c r="H6" s="48">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I6" s="48">
+        <v>0</v>
+      </c>
+      <c r="J6" s="48">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="53">
+        <v>0</v>
+      </c>
+      <c r="L6" s="48">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="48">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="48">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="49">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="48">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="48">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="48">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="48">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="49">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="50">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="B7" s="51">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="51">
+        <v>0</v>
+      </c>
+      <c r="D7" s="51">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="52">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="51">
+        <v>0</v>
+      </c>
+      <c r="G7" s="51">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H7" s="51">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="I7" s="51">
+        <v>0</v>
+      </c>
+      <c r="J7" s="51">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="50">
+        <v>0</v>
+      </c>
+      <c r="L7" s="51">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="51">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="51">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="52">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="51">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="51">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="51">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="52">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="79"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-5</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="56">
+        <v>5</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="56">
+        <v>0</v>
+      </c>
+      <c r="J2" s="63">
+        <v>-5</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="56">
+        <v>5</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="56">
+        <v>0</v>
+      </c>
+      <c r="O2" s="56">
+        <v>-5</v>
+      </c>
+      <c r="P2" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="64">
+        <v>5</v>
+      </c>
+      <c r="R2" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="56">
+        <v>0</v>
+      </c>
+      <c r="T2" s="56">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="20">
+        <v>0</v>
+      </c>
+      <c r="B3" s="21">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+      <c r="D3" s="21">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="E3" s="22">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <f>6/6</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="J3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L3" s="21">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="M3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="62">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="B4" s="21">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="57">
+        <v>0</v>
+      </c>
+      <c r="D4" s="57">
+        <v>0</v>
+      </c>
+      <c r="E4" s="58">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="57">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G4" s="57">
+        <f>4/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H4" s="57">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I4" s="57">
+        <v>0</v>
+      </c>
+      <c r="J4" s="57">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="62">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="L4" s="57">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="57">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="57">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="58">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="57">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="R4" s="57">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="S4" s="57">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="58">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="62">
+        <v>0</v>
+      </c>
+      <c r="B5" s="57">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C5" s="57">
+        <v>0</v>
+      </c>
+      <c r="D5" s="57">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="58">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="57">
+        <f>2/11</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G5" s="57">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H5" s="57">
+        <v>0</v>
+      </c>
+      <c r="I5" s="57">
+        <v>0</v>
+      </c>
+      <c r="J5" s="57">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="62">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="57">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="57">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="57">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="58">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="57">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="57">
+        <v>0</v>
+      </c>
+      <c r="R5" s="57">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="57">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="58">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="62">
+        <v>0</v>
+      </c>
+      <c r="B6" s="57">
+        <v>0</v>
+      </c>
+      <c r="C6" s="57">
+        <f>1/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="57">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="58">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="57">
+        <f>3/7</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G6" s="57">
+        <v>0</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0</v>
+      </c>
+      <c r="I6" s="57">
+        <v>0</v>
+      </c>
+      <c r="J6" s="57">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="62">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L6" s="57">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="57">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="57">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="58">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="57">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="57">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="57">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="57">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="58">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="59">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="B7" s="60">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C7" s="60">
+        <v>0</v>
+      </c>
+      <c r="D7" s="60">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="61">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="60">
+        <f>1/10</f>
+        <v>0.1</v>
+      </c>
+      <c r="G7" s="60">
+        <f>7/7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="60">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="60">
+        <f>4/7</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="J7" s="60">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="59">
+        <v>0</v>
+      </c>
+      <c r="L7" s="60">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="M7" s="60">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="60">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="61">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="60">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="60">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="60">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="61">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="P1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="77" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="79"/>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0</v>
+      </c>
+      <c r="E2" s="19">
+        <v>-5</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="65">
+        <v>5</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="65">
+        <v>0</v>
+      </c>
+      <c r="J2" s="72">
+        <v>-5</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="65">
+        <v>5</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="65">
+        <v>0</v>
+      </c>
+      <c r="O2" s="65">
+        <v>-5</v>
+      </c>
+      <c r="P2" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="73">
+        <v>5</v>
+      </c>
+      <c r="R2" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="65">
+        <v>0</v>
+      </c>
+      <c r="T2" s="65">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="20">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="B3" s="21">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C3" s="21">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3" s="21">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="21">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="21">
+        <f>4/5</f>
+        <v>0.8</v>
+      </c>
+      <c r="H3" s="21">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>0</v>
+      </c>
+      <c r="R3" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="21">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="22">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="71">
+        <f>2/6</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="B4" s="21">
+        <v>0</v>
+      </c>
+      <c r="C4" s="66">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D4" s="66">
+        <v>0</v>
+      </c>
+      <c r="E4" s="67">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="66">
+        <f>6/7</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="G4" s="66">
+        <v>0</v>
+      </c>
+      <c r="H4" s="66">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="66">
+        <v>0</v>
+      </c>
+      <c r="J4" s="66">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="71">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="66">
+        <v>0</v>
+      </c>
+      <c r="M4" s="66">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="66">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="67">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="66">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="66">
+        <v>0</v>
+      </c>
+      <c r="R4" s="66">
+        <v>0</v>
+      </c>
+      <c r="S4" s="66">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="67">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="71">
+        <v>0</v>
+      </c>
+      <c r="B5" s="66">
+        <v>0</v>
+      </c>
+      <c r="C5" s="66">
+        <v>0</v>
+      </c>
+      <c r="D5" s="66">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="67">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="66">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G5" s="66">
+        <v>0</v>
+      </c>
+      <c r="H5" s="66">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I5" s="66">
+        <f>2/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="66">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="71">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="66">
+        <v>0</v>
+      </c>
+      <c r="M5" s="66">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="N5" s="66">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="67">
+        <f>0/4</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="66">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q5" s="66">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="66">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="66">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="67">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="71">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66">
+        <v>0</v>
+      </c>
+      <c r="C6" s="66">
+        <f>1/8</f>
+        <v>0.125</v>
+      </c>
+      <c r="D6" s="66">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="67">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <f>5/5</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="66">
+        <v>0</v>
+      </c>
+      <c r="H6" s="66">
+        <v>0</v>
+      </c>
+      <c r="I6" s="66">
+        <v>0</v>
+      </c>
+      <c r="J6" s="66">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="71">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="66">
+        <v>0</v>
+      </c>
+      <c r="M6" s="66">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="66">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="67">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="66">
+        <f>3/8</f>
+        <v>0.375</v>
+      </c>
+      <c r="Q6" s="66">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="66">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="66">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="67">
+        <f>0/3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="68">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="B7" s="69">
+        <v>0</v>
+      </c>
+      <c r="C7" s="69">
+        <v>0</v>
+      </c>
+      <c r="D7" s="69">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="70">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="69">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="69">
+        <v>0</v>
+      </c>
+      <c r="H7" s="69">
+        <f>3/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="69">
+        <v>0</v>
+      </c>
+      <c r="J7" s="69">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="68">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="69">
+        <v>0</v>
+      </c>
+      <c r="M7" s="69">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="69">
+        <f>0/6</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="70">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="69">
+        <f>2/8</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q7" s="69">
+        <f>0/7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="69">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="69">
+        <f>0/8</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="70">
+        <f>0/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="G11" s="66"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="G12" s="66"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="G14" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="4">
